--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H2">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>1177.665810510222</v>
+        <v>8.730206645980445</v>
       </c>
       <c r="R2">
-        <v>1177.665810510222</v>
+        <v>78.57185981382401</v>
       </c>
       <c r="S2">
-        <v>0.02534057859617965</v>
+        <v>0.0001683119922585697</v>
       </c>
       <c r="T2">
-        <v>0.02534057859617965</v>
+        <v>0.0001683119922585698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H3">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>24999.79890121831</v>
+        <v>171.9384996853796</v>
       </c>
       <c r="R3">
-        <v>24999.79890121831</v>
+        <v>1547.446497168416</v>
       </c>
       <c r="S3">
-        <v>0.5379364530167867</v>
+        <v>0.003314848388075661</v>
       </c>
       <c r="T3">
-        <v>0.5379364530167867</v>
+        <v>0.003314848388075661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H4">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>8088.569920590447</v>
+        <v>62.49260888793244</v>
       </c>
       <c r="R4">
-        <v>8088.569920590447</v>
+        <v>562.433479991392</v>
       </c>
       <c r="S4">
-        <v>0.1740468645469246</v>
+        <v>0.001204811745001055</v>
       </c>
       <c r="T4">
-        <v>0.1740468645469246</v>
+        <v>0.001204811745001056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H5">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I5">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J5">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>419.5505778961581</v>
+        <v>1.808037371587778</v>
       </c>
       <c r="R5">
-        <v>419.5505778961581</v>
+        <v>16.27233634429</v>
       </c>
       <c r="S5">
-        <v>0.009027734608041342</v>
+        <v>3.485763675823172E-05</v>
       </c>
       <c r="T5">
-        <v>0.009027734608041342</v>
+        <v>3.485763675823172E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H6">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I6">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J6">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>8906.329777672388</v>
+        <v>35.60869125463722</v>
       </c>
       <c r="R6">
-        <v>8906.329777672388</v>
+        <v>320.478221291735</v>
       </c>
       <c r="S6">
-        <v>0.1916431195678695</v>
+        <v>0.0006865094962612097</v>
       </c>
       <c r="T6">
-        <v>0.1916431195678695</v>
+        <v>0.0006865094962612097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.8039883333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.411965</v>
+      </c>
+      <c r="I7">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="J7">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N7">
+        <v>48.292873</v>
+      </c>
+      <c r="O7">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P7">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q7">
+        <v>12.94230215838278</v>
+      </c>
+      <c r="R7">
+        <v>116.480719425445</v>
+      </c>
+      <c r="S7">
+        <v>0.0002495181098253549</v>
+      </c>
+      <c r="T7">
+        <v>0.000249518109825355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H8">
+        <v>1706.372193</v>
+      </c>
+      <c r="I8">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J8">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.746506</v>
+      </c>
+      <c r="O8">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P8">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q8">
+        <v>1279.116693145296</v>
+      </c>
+      <c r="R8">
+        <v>11512.05023830766</v>
+      </c>
+      <c r="S8">
+        <v>0.02466043333047589</v>
+      </c>
+      <c r="T8">
+        <v>0.02466043333047589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H9">
+        <v>1706.372193</v>
+      </c>
+      <c r="I9">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J9">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N9">
+        <v>132.870179</v>
+      </c>
+      <c r="O9">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P9">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q9">
+        <v>25191.77541383696</v>
+      </c>
+      <c r="R9">
+        <v>226725.9787245326</v>
+      </c>
+      <c r="S9">
+        <v>0.4856789856613034</v>
+      </c>
+      <c r="T9">
+        <v>0.4856789856613035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H10">
+        <v>1706.372193</v>
+      </c>
+      <c r="I10">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J10">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N10">
+        <v>48.292873</v>
+      </c>
+      <c r="O10">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P10">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q10">
+        <v>9156.179511920054</v>
+      </c>
+      <c r="R10">
+        <v>82405.6156072805</v>
+      </c>
+      <c r="S10">
+        <v>0.1765244372351613</v>
+      </c>
+      <c r="T10">
+        <v>0.1765244372351613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>201.10361549935</v>
-      </c>
-      <c r="H7">
-        <v>201.10361549935</v>
-      </c>
-      <c r="I7">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="J7">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="N7">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="O7">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="P7">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="Q7">
-        <v>2881.602025167859</v>
-      </c>
-      <c r="R7">
-        <v>2881.602025167859</v>
-      </c>
-      <c r="S7">
-        <v>0.06200524966419815</v>
-      </c>
-      <c r="T7">
-        <v>0.06200524966419815</v>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H11">
+        <v>762.80426</v>
+      </c>
+      <c r="I11">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J11">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N11">
+        <v>6.746506</v>
+      </c>
+      <c r="O11">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P11">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q11">
+        <v>571.8070574350622</v>
+      </c>
+      <c r="R11">
+        <v>5146.26351691556</v>
+      </c>
+      <c r="S11">
+        <v>0.01102402141519953</v>
+      </c>
+      <c r="T11">
+        <v>0.01102402141519953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H12">
+        <v>762.80426</v>
+      </c>
+      <c r="I12">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J12">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N12">
+        <v>132.870179</v>
+      </c>
+      <c r="O12">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P12">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q12">
+        <v>11261.54872979584</v>
+      </c>
+      <c r="R12">
+        <v>101353.9385681625</v>
+      </c>
+      <c r="S12">
+        <v>0.2171144142964366</v>
+      </c>
+      <c r="T12">
+        <v>0.2171144142964366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H13">
+        <v>762.80426</v>
+      </c>
+      <c r="I13">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J13">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N13">
+        <v>48.292873</v>
+      </c>
+      <c r="O13">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P13">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q13">
+        <v>4093.112139115442</v>
+      </c>
+      <c r="R13">
+        <v>36838.00925203898</v>
+      </c>
+      <c r="S13">
+        <v>0.07891220524424218</v>
+      </c>
+      <c r="T13">
+        <v>0.0789122052442422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.059913</v>
+      </c>
+      <c r="I14">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J14">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N14">
+        <v>6.746506</v>
+      </c>
+      <c r="O14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q14">
+        <v>0.7945232682197777</v>
+      </c>
+      <c r="R14">
+        <v>7.150709413977999</v>
+      </c>
+      <c r="S14">
+        <v>1.531782689604851E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.531782689604851E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.059913</v>
+      </c>
+      <c r="I15">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J15">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N15">
+        <v>132.870179</v>
+      </c>
+      <c r="O15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q15">
+        <v>15.64787000382522</v>
+      </c>
+      <c r="R15">
+        <v>140.830830034427</v>
+      </c>
+      <c r="S15">
+        <v>0.0003016794769868996</v>
+      </c>
+      <c r="T15">
+        <v>0.0003016794769868997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.059913</v>
+      </c>
+      <c r="I16">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J16">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.292873</v>
+      </c>
+      <c r="O16">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P16">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q16">
+        <v>5.687360433338776</v>
+      </c>
+      <c r="R16">
+        <v>51.18624390004899</v>
+      </c>
+      <c r="S16">
+        <v>0.0001096481451179107</v>
+      </c>
+      <c r="T16">
+        <v>0.0001096481451179107</v>
       </c>
     </row>
   </sheetData>
